--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_18.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>133330.0762826392</v>
+        <v>129190.3698686822</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516697</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11372250.18876479</v>
+        <v>11369300.29181269</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>90.19622212913345</v>
+        <v>390.0368169762677</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
@@ -707,25 +707,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -741,10 +741,10 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>102.3702339695584</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
         <v>123.1874880556995</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>175.2139736830806</v>
@@ -804,7 +804,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
-        <v>177.5210747552478</v>
+        <v>29.27276560847564</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>49.75680030822303</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>64.17257628986184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>156.9802700897868</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>44.52879774333265</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -978,16 +978,16 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>62.46955506727514</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
         <v>87.41444223540508</v>
@@ -1041,7 +1041,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
-        <v>177.5210747552478</v>
+        <v>30.77342125956712</v>
       </c>
     </row>
     <row r="7">
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>88.83019603411954</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>163.1468892566288</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -1133,22 +1133,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>45.04949063808409</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>304.0074039714629</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>53.0363847091458</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4303062027480973</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
         <v>318.1654340873667</v>
@@ -1379,16 +1379,16 @@
         <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372788</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.770107113628</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>150.1872840214455</v>
@@ -1427,16 +1427,16 @@
         <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>135.2473533940887</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>42.32203724477155</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993873</v>
+        <v>97.42475435993872</v>
       </c>
       <c r="D13" t="n">
-        <v>80.75075480050887</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465755</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442482</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681697</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456094</v>
+        <v>60.68516871456093</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901685</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
         <v>211.5060914457861</v>
@@ -1591,10 +1591,10 @@
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,10 +1607,10 @@
         <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
@@ -1625,7 +1625,7 @@
         <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,13 +1658,13 @@
         <v>93.770107113628</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>28.85218297982614</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>87.07058733695374</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>296.2107322866635</v>
@@ -1765,22 +1765,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993873</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177846</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>82.92491162465757</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>43.66693045677314</v>
       </c>
       <c r="G16" t="n">
-        <v>38.17500327720003</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338901</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>60.68516871456094</v>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
@@ -1847,7 +1847,7 @@
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799142</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="26">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542122</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.907289182028</v>
+        <v>276.4638267093887</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954282</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345502</v>
+        <v>285.7777698619109</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852513</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568061</v>
+        <v>296.2512081841669</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291035</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838908</v>
+        <v>24.17382596574986</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828921</v>
+        <v>52.06849973564998</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161068</v>
+        <v>108.4856766434675</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696766</v>
+        <v>140.4152824970374</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034461</v>
+        <v>225.9058214308068</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813247</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.221621716203</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885342</v>
+        <v>279.7458822158949</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431753</v>
+        <v>70.5760187316783</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459994</v>
+        <v>55.72314698196071</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643966</v>
+        <v>41.29686219380044</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931877</v>
+        <v>41.22330424667955</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908604</v>
+        <v>42.97275566644682</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147818</v>
+        <v>53.79159358883895</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805022</v>
+        <v>41.14384575541099</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922215</v>
+        <v>18.98356133658292</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367807</v>
+        <v>9.882059701038841</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920538</v>
+        <v>88.00800320656616</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133775</v>
+        <v>120.5819415407382</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404473</v>
+        <v>169.8044840678081</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273133</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480634</v>
+        <v>167.7171782754242</v>
       </c>
       <c r="X34" t="n">
-        <v>125.403061694776</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714523</v>
+        <v>108.1010207988131</v>
       </c>
     </row>
     <row r="35">
@@ -3752,13 +3752,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3800,10 +3800,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H43" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="44">
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E44" t="n">
         <v>268.1977203190365</v>
@@ -3989,13 +3989,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4037,10 +4037,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380516</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596456</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H46" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1343.52473636721</v>
+        <v>1251.226109956102</v>
       </c>
       <c r="C2" t="n">
-        <v>950.3492348701402</v>
+        <v>1251.226109956102</v>
       </c>
       <c r="D2" t="n">
-        <v>950.3492348701402</v>
+        <v>1251.226109956102</v>
       </c>
       <c r="E2" t="n">
-        <v>547.7657099866847</v>
+        <v>848.6425850726462</v>
       </c>
       <c r="F2" t="n">
-        <v>456.6584149067519</v>
+        <v>454.6660022683353</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475502</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>365.4243013579099</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L2" t="n">
-        <v>858.7445930764387</v>
+        <v>699.7694884660239</v>
       </c>
       <c r="M2" t="n">
-        <v>858.7445930764387</v>
+        <v>1213.372167075712</v>
       </c>
       <c r="N2" t="n">
-        <v>1386.555876713901</v>
+        <v>1726.9748456854</v>
       </c>
       <c r="O2" t="n">
-        <v>1826.595477606229</v>
+        <v>1726.9748456854</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023273</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="S2" t="n">
-        <v>1970.276500964324</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="T2" t="n">
-        <v>1970.276500964324</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="U2" t="n">
-        <v>1714.523771398922</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="V2" t="n">
-        <v>1714.523771398922</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="W2" t="n">
-        <v>1343.52473636721</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="X2" t="n">
-        <v>1343.52473636721</v>
+        <v>1647.716819035501</v>
       </c>
       <c r="Y2" t="n">
-        <v>1343.52473636721</v>
+        <v>1251.226109956102</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679.7304610040817</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C3" t="n">
-        <v>529.0762305641739</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D3" t="n">
-        <v>529.0762305641739</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822425</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284344</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K3" t="n">
-        <v>363.2348054569815</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="L3" t="n">
-        <v>846.8008913552947</v>
+        <v>525.0693326546517</v>
       </c>
       <c r="M3" t="n">
-        <v>1385.059676365388</v>
+        <v>1038.67201126434</v>
       </c>
       <c r="N3" t="n">
-        <v>1923.318461375481</v>
+        <v>1327.194567652343</v>
       </c>
       <c r="O3" t="n">
-        <v>1923.318461375481</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.782969737751</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R3" t="n">
-        <v>2174.782969737751</v>
+        <v>2051.245294714986</v>
       </c>
       <c r="S3" t="n">
-        <v>2039.85229263762</v>
+        <v>2051.245294714986</v>
       </c>
       <c r="T3" t="n">
-        <v>1862.868480836528</v>
+        <v>1874.261482913895</v>
       </c>
       <c r="U3" t="n">
-        <v>1652.80533751517</v>
+        <v>1664.198339592537</v>
       </c>
       <c r="V3" t="n">
-        <v>1430.265335886237</v>
+        <v>1441.658337963604</v>
       </c>
       <c r="W3" t="n">
-        <v>1200.148090019524</v>
+        <v>1211.54109209689</v>
       </c>
       <c r="X3" t="n">
-        <v>1010.841012369536</v>
+        <v>1022.234014446902</v>
       </c>
       <c r="Y3" t="n">
-        <v>831.526795445043</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>694.9138791138325</v>
+        <v>565.973801862287</v>
       </c>
       <c r="C4" t="n">
-        <v>524.7087611798217</v>
+        <v>395.7686839282762</v>
       </c>
       <c r="D4" t="n">
-        <v>369.0756480823366</v>
+        <v>240.135570830791</v>
       </c>
       <c r="E4" t="n">
-        <v>369.0756480823366</v>
+        <v>240.135570830791</v>
       </c>
       <c r="F4" t="n">
-        <v>211.7497132953095</v>
+        <v>240.135570830791</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475502</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475502</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475502</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>565.973801862287</v>
       </c>
       <c r="U4" t="n">
-        <v>944.9426819363074</v>
+        <v>565.973801862287</v>
       </c>
       <c r="V4" t="n">
-        <v>944.9426819363074</v>
+        <v>565.973801862287</v>
       </c>
       <c r="W4" t="n">
-        <v>944.9426819363074</v>
+        <v>565.973801862287</v>
       </c>
       <c r="X4" t="n">
-        <v>944.9426819363074</v>
+        <v>565.973801862287</v>
       </c>
       <c r="Y4" t="n">
-        <v>880.1218978051338</v>
+        <v>565.973801862287</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>898.5441829409706</v>
+        <v>1168.463487029516</v>
       </c>
       <c r="C5" t="n">
-        <v>505.3686814439012</v>
+        <v>1168.463487029516</v>
       </c>
       <c r="D5" t="n">
-        <v>505.3686814439012</v>
+        <v>1168.463487029516</v>
       </c>
       <c r="E5" t="n">
-        <v>505.3686814439012</v>
+        <v>1009.897557645893</v>
       </c>
       <c r="F5" t="n">
-        <v>88.47424297387892</v>
+        <v>593.0031191758706</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475502</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475502</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475502</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K5" t="n">
-        <v>43.49565939475502</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="L5" t="n">
-        <v>536.8159511132839</v>
+        <v>423.0718195642687</v>
       </c>
       <c r="M5" t="n">
-        <v>673.8990329354903</v>
+        <v>936.6744981739569</v>
       </c>
       <c r="N5" t="n">
-        <v>1201.710316572952</v>
+        <v>1450.277176783645</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465281</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596803</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737751</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.782969737751</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="T5" t="n">
-        <v>1951.282367297168</v>
+        <v>1813.66882166186</v>
       </c>
       <c r="U5" t="n">
-        <v>1695.529637731766</v>
+        <v>1557.916092096459</v>
       </c>
       <c r="V5" t="n">
-        <v>1695.529637731766</v>
+        <v>1557.916092096459</v>
       </c>
       <c r="W5" t="n">
-        <v>1695.529637731766</v>
+        <v>1557.916092096459</v>
       </c>
       <c r="X5" t="n">
-        <v>1695.529637731766</v>
+        <v>1168.463487029516</v>
       </c>
       <c r="Y5" t="n">
-        <v>1299.038928652368</v>
+        <v>1168.463487029516</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655.8134179021461</v>
+        <v>704.4227390072571</v>
       </c>
       <c r="C6" t="n">
-        <v>505.1591874622383</v>
+        <v>553.7685085673493</v>
       </c>
       <c r="D6" t="n">
-        <v>505.1591874622383</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="E6" t="n">
-        <v>368.712696573126</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>244.2808904562578</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822425</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284344</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144824</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M6" t="n">
-        <v>1402.159093172767</v>
+        <v>1471.526139546294</v>
       </c>
       <c r="N6" t="n">
-        <v>1940.41787818286</v>
+        <v>1985.128818155982</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.41787818286</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.41787818286</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635815</v>
+        <v>2051.245294714986</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535684</v>
+        <v>1916.314617614855</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734593</v>
+        <v>1739.330805813764</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413234</v>
+        <v>1529.267662492405</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784302</v>
+        <v>1306.727660863472</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917588</v>
+        <v>1076.610414996759</v>
       </c>
       <c r="X6" t="n">
-        <v>986.9239692676001</v>
+        <v>887.3033373467711</v>
       </c>
       <c r="Y6" t="n">
-        <v>807.6097523431074</v>
+        <v>856.2190734482184</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>333.8065182441987</v>
+        <v>197.062058897136</v>
       </c>
       <c r="C7" t="n">
-        <v>163.601400310188</v>
+        <v>197.062058897136</v>
       </c>
       <c r="D7" t="n">
-        <v>73.87392956865307</v>
+        <v>197.062058897136</v>
       </c>
       <c r="E7" t="n">
-        <v>73.87392956865307</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="F7" t="n">
-        <v>73.87392956865307</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="G7" t="n">
-        <v>73.87392956865307</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="H7" t="n">
-        <v>73.87392956865307</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="I7" t="n">
-        <v>73.87392956865307</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S7" t="n">
-        <v>742.1265981188567</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="T7" t="n">
-        <v>742.1265981188567</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="U7" t="n">
-        <v>742.1265981188567</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="V7" t="n">
-        <v>742.1265981188567</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="W7" t="n">
-        <v>742.1265981188567</v>
+        <v>654.2544422975095</v>
       </c>
       <c r="X7" t="n">
-        <v>742.1265981188567</v>
+        <v>420.1741200804926</v>
       </c>
       <c r="Y7" t="n">
-        <v>519.0145369355</v>
+        <v>197.062058897136</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2058.57031924742</v>
+        <v>828.606432888166</v>
       </c>
       <c r="C8" t="n">
-        <v>1665.394817750351</v>
+        <v>828.606432888166</v>
       </c>
       <c r="D8" t="n">
-        <v>1279.953688967018</v>
+        <v>828.606432888166</v>
       </c>
       <c r="E8" t="n">
-        <v>877.3701640835627</v>
+        <v>426.0229080047105</v>
       </c>
       <c r="F8" t="n">
-        <v>460.4757256135405</v>
+        <v>380.5183720066457</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H8" t="n">
         <v>47.31297010154361</v>
@@ -4805,49 +4805,49 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154361</v>
+        <v>358.4764287842802</v>
       </c>
       <c r="L8" t="n">
-        <v>318.7636682303387</v>
+        <v>851.7967205028091</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="V8" t="n">
-        <v>2058.57031924742</v>
+        <v>1985.548782066221</v>
       </c>
       <c r="W8" t="n">
-        <v>2058.57031924742</v>
+        <v>1614.549747034508</v>
       </c>
       <c r="X8" t="n">
-        <v>2058.57031924742</v>
+        <v>1225.097141967565</v>
       </c>
       <c r="Y8" t="n">
-        <v>2058.57031924742</v>
+        <v>828.606432888166</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
-        <v>194.5661265746817</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L9" t="n">
-        <v>678.132212472995</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M9" t="n">
-        <v>1263.630217479597</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="N9" t="n">
-        <v>1849.128222486199</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="O9" t="n">
-        <v>2365.64850507718</v>
+        <v>1952.636489659666</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2358.257858376064</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4984,19 +4984,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>386.3238676264566</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U10" t="n">
-        <v>100.8850758683575</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V10" t="n">
-        <v>47.31297010154361</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W10" t="n">
         <v>47.31297010154361</v>
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1780.935942880364</v>
+        <v>1688.124554843851</v>
       </c>
       <c r="C11" t="n">
-        <v>1459.556716529488</v>
+        <v>1366.745328492975</v>
       </c>
       <c r="D11" t="n">
-        <v>1145.91186289235</v>
+        <v>1053.100474855837</v>
       </c>
       <c r="E11" t="n">
-        <v>815.1246131550881</v>
+        <v>722.3132251185755</v>
       </c>
       <c r="F11" t="n">
-        <v>470.0264498312598</v>
+        <v>722.3132251185755</v>
       </c>
       <c r="G11" t="n">
-        <v>128.6599694654568</v>
+        <v>380.9467447527725</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654568</v>
+        <v>128.659969465457</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>2859.534777998631</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="U11" t="n">
-        <v>2675.578323579424</v>
+        <v>2770.29560349218</v>
       </c>
       <c r="V11" t="n">
-        <v>2405.267789429136</v>
+        <v>2770.29560349218</v>
       </c>
       <c r="W11" t="n">
-        <v>2106.065029543617</v>
+        <v>2471.092843606661</v>
       </c>
       <c r="X11" t="n">
-        <v>2106.065029543617</v>
+        <v>2153.436513685911</v>
       </c>
       <c r="Y11" t="n">
-        <v>1781.370595610412</v>
+        <v>2016.823025409054</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L12" t="n">
-        <v>978.5393418843826</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M12" t="n">
-        <v>1606.310991511064</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N12" t="n">
-        <v>2262.088962721623</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O12" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>399.8503184534342</v>
+        <v>487.576096098458</v>
       </c>
       <c r="C13" t="n">
-        <v>301.4414756656174</v>
+        <v>389.1672533106411</v>
       </c>
       <c r="D13" t="n">
-        <v>219.8750566752043</v>
+        <v>389.1672533106411</v>
       </c>
       <c r="E13" t="n">
-        <v>219.8750566752043</v>
+        <v>305.4047163160375</v>
       </c>
       <c r="F13" t="n">
         <v>219.8750566752043</v>
@@ -5218,31 +5218,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814508</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1496.732641814508</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T13" t="n">
-        <v>1332.809865128936</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U13" t="n">
-        <v>1119.16734851703</v>
+        <v>936.0428256245444</v>
       </c>
       <c r="V13" t="n">
-        <v>924.9842784840484</v>
+        <v>741.8597555915626</v>
       </c>
       <c r="W13" t="n">
-        <v>713.4501515614199</v>
+        <v>530.3256286689343</v>
       </c>
       <c r="X13" t="n">
-        <v>551.1661044905969</v>
+        <v>530.3256286689343</v>
       </c>
       <c r="Y13" t="n">
-        <v>399.8503184534342</v>
+        <v>530.3256286689343</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1653.0370227692</v>
+        <v>1711.843491816804</v>
       </c>
       <c r="C14" t="n">
-        <v>1331.657796418324</v>
+        <v>1711.843491816804</v>
       </c>
       <c r="D14" t="n">
-        <v>1331.657796418324</v>
+        <v>1398.198638179665</v>
       </c>
       <c r="E14" t="n">
-        <v>1000.870546681063</v>
+        <v>1067.411388442403</v>
       </c>
       <c r="F14" t="n">
-        <v>655.7723833572343</v>
+        <v>722.3132251185752</v>
       </c>
       <c r="G14" t="n">
-        <v>314.4059029914312</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411573</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5306,22 +5306,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>3011.239105293021</v>
+        <v>2982.09548612148</v>
       </c>
       <c r="U14" t="n">
-        <v>3011.239105293021</v>
+        <v>2982.09548612148</v>
       </c>
       <c r="V14" t="n">
-        <v>2923.289017073876</v>
+        <v>2982.09548612148</v>
       </c>
       <c r="W14" t="n">
-        <v>2624.086257188357</v>
+        <v>2682.892726235961</v>
       </c>
       <c r="X14" t="n">
-        <v>2306.429927267608</v>
+        <v>2365.236396315212</v>
       </c>
       <c r="Y14" t="n">
-        <v>1981.735493334403</v>
+        <v>2040.541962382007</v>
       </c>
     </row>
     <row r="15">
@@ -5361,19 +5361,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>978.5393418843826</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M15" t="n">
-        <v>1606.310991511064</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N15" t="n">
-        <v>2262.088962721623</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>2262.088962721623</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2262.088962721623</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>511.6683809177771</v>
+        <v>347.745604232205</v>
       </c>
       <c r="C16" t="n">
-        <v>413.2595381299601</v>
+        <v>347.745604232205</v>
       </c>
       <c r="D16" t="n">
-        <v>329.4227001786688</v>
+        <v>347.745604232205</v>
       </c>
       <c r="E16" t="n">
-        <v>245.6601631840651</v>
+        <v>263.9830672376014</v>
       </c>
       <c r="F16" t="n">
-        <v>245.6601631840651</v>
+        <v>219.8750566752043</v>
       </c>
       <c r="G16" t="n">
-        <v>207.0995538131559</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="H16" t="n">
         <v>123.4172779208438</v>
@@ -5464,22 +5464,22 @@
         <v>1444.627927593278</v>
       </c>
       <c r="T16" t="n">
-        <v>1444.627927593278</v>
+        <v>1280.705150907706</v>
       </c>
       <c r="U16" t="n">
-        <v>1230.985410981373</v>
+        <v>1067.062634295801</v>
       </c>
       <c r="V16" t="n">
-        <v>1036.802340948391</v>
+        <v>872.8795642628194</v>
       </c>
       <c r="W16" t="n">
-        <v>825.2682140257627</v>
+        <v>661.3454373401909</v>
       </c>
       <c r="X16" t="n">
-        <v>662.9841669549398</v>
+        <v>499.0613902693677</v>
       </c>
       <c r="Y16" t="n">
-        <v>511.6683809177771</v>
+        <v>347.745604232205</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975453</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G17" t="n">
         <v>261.1858216803431</v>
@@ -5555,7 +5555,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
         <v>1882.877496443165</v>
@@ -5601,16 +5601,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1458.313011372373</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N18" t="n">
-        <v>1458.313011372373</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5674,25 +5674,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L19" t="n">
-        <v>435.0968109750523</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M19" t="n">
-        <v>621.3883893133163</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N19" t="n">
-        <v>804.5780233445255</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
-        <v>967.2827903862335</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5777,7 +5777,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5795,7 +5795,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M21" t="n">
-        <v>1223.947919817482</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5911,16 +5911,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>270.9691711012525</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>435.0968109750523</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O22" t="n">
         <v>967.2827903862335</v>
@@ -5972,34 +5972,34 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.7795079292423</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129444</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404062</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M23" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O23" t="n">
         <v>2572.923332933306</v>
@@ -6075,10 +6075,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N24" t="n">
-        <v>1634.317313094942</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
         <v>1740.468202408463</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6157,16 +6157,16 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>969.3241577214669</v>
+        <v>969.324157721467</v>
       </c>
       <c r="P25" t="n">
-        <v>1089.200323498045</v>
+        <v>1089.200323498046</v>
       </c>
       <c r="Q25" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
         <v>1584.222786214272</v>
@@ -6227,22 +6227,22 @@
         <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>755.8323718938493</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1249.152663612378</v>
+        <v>1342.204025341951</v>
       </c>
       <c r="M26" t="n">
-        <v>1888.204925386532</v>
+        <v>1981.256287116105</v>
       </c>
       <c r="N26" t="n">
         <v>2509.067570753567</v>
       </c>
       <c r="O26" t="n">
-        <v>3042.158533375469</v>
+        <v>2949.107171645896</v>
       </c>
       <c r="P26" t="n">
-        <v>3483.397387236565</v>
+        <v>3390.346025506991</v>
       </c>
       <c r="Q26" t="n">
         <v>3668.242947377513</v>
@@ -6251,7 +6251,7 @@
         <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
         <v>3468.110152452356</v>
@@ -6303,16 +6303,16 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>876.6700909080899</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>876.6700909080899</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N27" t="n">
         <v>1235.193651060917</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985353</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
         <v>307.7550988878065</v>
@@ -6388,22 +6388,22 @@
         <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225743</v>
+        <v>568.7078825225744</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904117</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628627</v>
+        <v>1592.975474628628</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.449032728252</v>
       </c>
       <c r="R28" t="n">
         <v>1660.488724648017</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286447</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026479</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859517</v>
+        <v>247.9841471388008</v>
       </c>
       <c r="K29" t="n">
-        <v>755.8323718938492</v>
+        <v>700.0178648958359</v>
       </c>
       <c r="L29" t="n">
-        <v>1342.204025341951</v>
+        <v>1286.389518343938</v>
       </c>
       <c r="M29" t="n">
-        <v>1981.256287116105</v>
+        <v>1925.441780118092</v>
       </c>
       <c r="N29" t="n">
-        <v>2509.067570753567</v>
+        <v>2453.253063755554</v>
       </c>
       <c r="O29" t="n">
-        <v>3042.158533375469</v>
+        <v>2893.292664647883</v>
       </c>
       <c r="P29" t="n">
-        <v>3390.346025506991</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
-        <v>3668.242947377513</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
@@ -6540,16 +6540,16 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>876.6700909080899</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>876.6700909080899</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N30" t="n">
         <v>1235.193651060917</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985348</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517124</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
         <v>307.7550988878065</v>
@@ -6619,16 +6619,16 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796859</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192008</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225739</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6643,7 +6643,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648016</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
@@ -6655,16 +6655,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210278</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286445</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988159</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026476</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222132</v>
+        <v>1743.79887591859</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654427</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800459</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463677</v>
+        <v>904.3560533993077</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057098</v>
+        <v>601.3807258108106</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230773</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189325</v>
+        <v>91.97314162835507</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076169</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J32" t="n">
-        <v>319.4704138766598</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>726.6260980185732</v>
+        <v>571.1872645386351</v>
       </c>
       <c r="L32" t="n">
-        <v>1219.946389737102</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1765.947289781683</v>
+        <v>1722.160576876727</v>
       </c>
       <c r="N32" t="n">
-        <v>2399.031666146215</v>
+        <v>2293.032006377473</v>
       </c>
       <c r="O32" t="n">
-        <v>2839.071267038543</v>
+        <v>2733.071607269801</v>
       </c>
       <c r="P32" t="n">
-        <v>3292.531851897135</v>
+        <v>3081.259099401324</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038084</v>
+        <v>3377.756780117255</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038084</v>
+        <v>3377.756780117255</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908499</v>
+        <v>3325.162335939831</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397281</v>
+        <v>3215.580844380773</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761243</v>
+        <v>3073.747225696897</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394126</v>
+        <v>2845.55952728194</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291778</v>
+        <v>2588.479603131753</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154199</v>
+        <v>2312.946108946335</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004164</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076169</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076169</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>389.2866943029881</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>872.8527802013014</v>
+        <v>983.9753497826122</v>
       </c>
       <c r="M33" t="n">
-        <v>872.8527802013014</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965142</v>
+        <v>365.6713676929717</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918678</v>
+        <v>309.3853606404862</v>
       </c>
       <c r="D34" t="n">
-        <v>302.206510823747</v>
+        <v>267.6713584245261</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123138</v>
+        <v>226.0316571652539</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546512</v>
+        <v>182.6248332597521</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834611</v>
+        <v>128.2898902407228</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431942</v>
+        <v>86.730450083742</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076169</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703942</v>
+        <v>143.5810516071552</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074061</v>
+        <v>337.0682132920799</v>
       </c>
       <c r="L34" t="n">
-        <v>496.2826720812059</v>
+        <v>501.1958531658797</v>
       </c>
       <c r="M34" t="n">
-        <v>701.1015743458895</v>
+        <v>799.1395520791266</v>
       </c>
       <c r="N34" t="n">
-        <v>884.2912083770988</v>
+        <v>1093.981306685319</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145877</v>
+        <v>1256.686073727027</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649525</v>
+        <v>1376.562239503605</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746646</v>
+        <v>1379.984435873656</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308588</v>
+        <v>1370.002557387758</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420501</v>
+        <v>1281.105584451833</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.9091795181</v>
+        <v>1159.305643501592</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689365</v>
+        <v>987.7859626250186</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395539</v>
+        <v>835.725728327368</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000959</v>
+        <v>666.3144371400708</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124434</v>
+        <v>546.1532258045792</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584511</v>
+        <v>436.9602755027478</v>
       </c>
     </row>
     <row r="35">
@@ -6920,16 +6920,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6941,13 +6941,13 @@
         <v>565.7512566404055</v>
       </c>
       <c r="L35" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M35" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N35" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O35" t="n">
         <v>2572.923332933306</v>
@@ -6956,13 +6956,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6971,7 +6971,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
         <v>2405.467337224691</v>
@@ -7014,19 +7014,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>865.4243596646552</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O36" t="n">
         <v>1740.468202408463</v>
@@ -7087,19 +7087,19 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229933</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222412</v>
       </c>
       <c r="L37" t="n">
-        <v>437.1381783102856</v>
+        <v>313.661451296041</v>
       </c>
       <c r="M37" t="n">
         <v>629.0093992567336</v>
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H38" t="n">
         <v>68.77950792924223</v>
@@ -7211,13 +7211,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="39">
@@ -7251,16 +7251,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>865.4243596646552</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N39" t="n">
         <v>1223.947919817482</v>
@@ -7333,16 +7333,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L40" t="n">
-        <v>437.1381783102856</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M40" t="n">
-        <v>629.0093992567336</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
         <v>974.9038003296507</v>
@@ -7394,16 +7394,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7433,7 +7433,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S41" t="n">
         <v>3071.119566829236</v>
@@ -7445,7 +7445,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
         <v>2405.467337224691</v>
@@ -7488,25 +7488,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N42" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7570,49 +7570,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222412</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>313.661451296041</v>
       </c>
       <c r="M43" t="n">
-        <v>499.9530296343054</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879432</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296512</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S43" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D44" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G44" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924226</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,22 +7673,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y44" t="n">
         <v>1882.877496443165</v>
@@ -7725,16 +7725,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N45" t="n">
         <v>1223.947919817482</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H46" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7813,43 +7813,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>499.9530296343054</v>
+        <v>499.9530296343045</v>
       </c>
       <c r="N46" t="n">
-        <v>683.1426636655146</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O46" t="n">
-        <v>845.8474307072227</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S46" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974525</v>
+        <v>289.463261197452</v>
       </c>
     </row>
   </sheetData>
@@ -7976,22 +7976,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>468.2388496066665</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>309.444243238972</v>
       </c>
       <c r="M2" t="n">
-        <v>149.7250515977273</v>
+        <v>668.5156360519577</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920146</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
@@ -8058,25 +8058,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837496</v>
+        <v>611.1777065035424</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886044</v>
+        <v>376.8090384986147</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>611.4781433431194</v>
       </c>
       <c r="P3" t="n">
-        <v>341.0879187205972</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,25 +8213,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
         <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>392.5600888204939</v>
       </c>
       <c r="M5" t="n">
-        <v>288.1928110140973</v>
+        <v>668.5156360519577</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920146</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8301,19 +8301,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>539.097444875317</v>
+        <v>611.1777065035424</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886044</v>
+        <v>604.1626973083971</v>
       </c>
       <c r="O6" t="n">
-        <v>92.68755888888889</v>
+        <v>183.6305080413536</v>
       </c>
       <c r="P6" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8453,10 +8453,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>457.3649271011935</v>
       </c>
       <c r="L8" t="n">
-        <v>427.440794103012</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8468,10 +8468,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8532,13 +8532,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>238.3374974274122</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
         <v>676.7842391234617</v>
@@ -8547,10 +8547,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>98.45345285401153</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8766,28 +8766,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>280.5807329993939</v>
       </c>
       <c r="N12" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>212.2488719779076</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8945,7 +8945,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9009,22 +9009,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>187.5973797276328</v>
       </c>
       <c r="O15" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.5494662449327</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9182,7 +9182,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9249,19 +9249,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>577.006990218999</v>
+        <v>199.6102425680207</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9477,28 +9477,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>499.3034269858954</v>
       </c>
       <c r="M21" t="n">
-        <v>454.5321323046928</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9723,13 +9723,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
-        <v>199.9106794075977</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
@@ -9951,7 +9951,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9960,10 +9960,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N27" t="n">
-        <v>447.5171231095471</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10197,10 +10197,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N30" t="n">
-        <v>447.5171231095471</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10425,7 +10425,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
@@ -10434,10 +10434,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069887</v>
       </c>
       <c r="N33" t="n">
-        <v>447.5171231095475</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10662,7 +10662,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
@@ -10671,13 +10671,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>447.5171231095475</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
@@ -10899,7 +10899,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
@@ -10908,10 +10908,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N39" t="n">
-        <v>447.5171231095475</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11136,19 +11136,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N42" t="n">
-        <v>373.1055958271594</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11157,7 +11157,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,7 +11373,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
@@ -11385,7 +11385,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>447.5171231095475</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>324.9811796568029</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.77010711362799</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>186.2001361997842</v>
       </c>
     </row>
     <row r="12">
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>69.95558886488476</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>2.247714771269585</v>
+        <v>82.99846957177844</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465757</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442484</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338901</v>
+        <v>82.845453133389</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901686</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372788</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,13 +23546,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>121.3351010416194</v>
       </c>
       <c r="U14" t="n">
         <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>180.5368414718311</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442484</v>
+        <v>41.0074325876517</v>
       </c>
       <c r="G16" t="n">
-        <v>57.31819768961694</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>3.126388037344441e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>992075.8339100957</v>
+        <v>990571.9648756949</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>992075.8339100957</v>
+        <v>990571.9648756949</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>893188.3867676667</v>
+        <v>893188.3867676668</v>
       </c>
     </row>
     <row r="7">
@@ -26314,43 +26314,43 @@
         <v>324597.9205680423</v>
       </c>
       <c r="C2" t="n">
-        <v>324597.9205680421</v>
+        <v>324597.9205680424</v>
       </c>
       <c r="D2" t="n">
-        <v>324597.9205680421</v>
+        <v>324597.9205680422</v>
       </c>
       <c r="E2" t="n">
-        <v>286846.2421639214</v>
+        <v>286846.2421639212</v>
       </c>
       <c r="F2" t="n">
         <v>286846.2421639212</v>
       </c>
       <c r="G2" t="n">
-        <v>324597.920568043</v>
+        <v>324597.9205680428</v>
       </c>
       <c r="H2" t="n">
+        <v>324597.9205680428</v>
+      </c>
+      <c r="I2" t="n">
+        <v>324597.9205680428</v>
+      </c>
+      <c r="J2" t="n">
+        <v>324597.9205680427</v>
+      </c>
+      <c r="K2" t="n">
+        <v>324597.9205680427</v>
+      </c>
+      <c r="L2" t="n">
+        <v>324597.9205680417</v>
+      </c>
+      <c r="M2" t="n">
         <v>324597.9205680429</v>
-      </c>
-      <c r="I2" t="n">
-        <v>324597.920568043</v>
-      </c>
-      <c r="J2" t="n">
-        <v>324597.9205680426</v>
-      </c>
-      <c r="K2" t="n">
-        <v>324597.9205680426</v>
-      </c>
-      <c r="L2" t="n">
-        <v>324597.920568042</v>
-      </c>
-      <c r="M2" t="n">
-        <v>324597.920568043</v>
       </c>
       <c r="N2" t="n">
         <v>324597.9205680428</v>
       </c>
       <c r="O2" t="n">
-        <v>324597.9205680428</v>
+        <v>324597.9205680429</v>
       </c>
       <c r="P2" t="n">
         <v>324597.9205680429</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918561</v>
+        <v>173858.6570340551</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062173</v>
+        <v>22558.42953401351</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740445</v>
+        <v>112122.5614740446</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,25 +26384,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945027</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728538</v>
+        <v>62456.24177539676</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962295</v>
+        <v>43252.52447081116</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277119</v>
+        <v>27767.6940427712</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>221554.611048951</v>
+        <v>226762.9162907736</v>
       </c>
       <c r="C4" t="n">
-        <v>221554.611048951</v>
+        <v>226762.9162907735</v>
       </c>
       <c r="D4" t="n">
         <v>211575.8953047903</v>
       </c>
       <c r="E4" t="n">
+        <v>138605.9604845214</v>
+      </c>
+      <c r="F4" t="n">
         <v>138605.9604845213</v>
-      </c>
-      <c r="F4" t="n">
-        <v>138605.9604845214</v>
       </c>
       <c r="G4" t="n">
         <v>186364.8769761035</v>
@@ -26445,19 +26445,19 @@
         <v>187115.3694404867</v>
       </c>
       <c r="L4" t="n">
-        <v>186859.7955400033</v>
+        <v>186726.4009309486</v>
       </c>
       <c r="M4" t="n">
         <v>186364.8769761036</v>
       </c>
       <c r="N4" t="n">
+        <v>186364.8769761035</v>
+      </c>
+      <c r="O4" t="n">
         <v>186364.8769761036</v>
       </c>
-      <c r="O4" t="n">
-        <v>186364.8769761035</v>
-      </c>
       <c r="P4" t="n">
-        <v>186364.8769761035</v>
+        <v>186364.8769761036</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001382</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001382</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26497,16 +26497,16 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173852</v>
+        <v>60823.19813315423</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-145845.9399127786</v>
+        <v>-141193.7202916036</v>
       </c>
       <c r="C6" t="n">
-        <v>36359.00837907731</v>
+        <v>32664.93674245162</v>
       </c>
       <c r="D6" t="n">
-        <v>28614.427675457</v>
+        <v>20878.13845206526</v>
       </c>
       <c r="E6" t="n">
-        <v>-17068.29949448505</v>
+        <v>-17278.03104117479</v>
       </c>
       <c r="F6" t="n">
-        <v>95054.26197955929</v>
+        <v>94844.53043286975</v>
       </c>
       <c r="G6" t="n">
-        <v>32637.94873973791</v>
+        <v>32637.94873973768</v>
       </c>
       <c r="H6" t="n">
-        <v>80063.27427641972</v>
+        <v>80063.27427641966</v>
       </c>
       <c r="I6" t="n">
-        <v>80063.27427641975</v>
+        <v>80063.27427641963</v>
       </c>
       <c r="J6" t="n">
-        <v>-132978.6433208663</v>
+        <v>-126462.3581662928</v>
       </c>
       <c r="K6" t="n">
-        <v>73823.50587363646</v>
+        <v>73823.50587363652</v>
       </c>
       <c r="L6" t="n">
-        <v>18640.9169390148</v>
+        <v>14592.07972854221</v>
       </c>
       <c r="M6" t="n">
-        <v>37862.44481679674</v>
+        <v>36810.7498056085</v>
       </c>
       <c r="N6" t="n">
-        <v>80063.27427641963</v>
+        <v>80063.27427641966</v>
       </c>
       <c r="O6" t="n">
-        <v>52295.58023364848</v>
+        <v>52295.5802336485</v>
       </c>
       <c r="P6" t="n">
-        <v>80063.27427641972</v>
+        <v>80063.27427641969</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F2" t="n">
         <v>71.07831239473194</v>
@@ -26713,7 +26713,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344378</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344378</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26811,22 +26811,22 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.344353009521</v>
+        <v>844.4391950293137</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26926,25 +26926,25 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346401</v>
+        <v>34.709617553464</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660672</v>
+        <v>78.07030221924595</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551365</v>
+        <v>17.58004954287442</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346399</v>
+        <v>34.709617553464</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344378</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485731</v>
+        <v>72.62154181506457</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.267382977372</v>
+        <v>659.3622249971646</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407197</v>
+        <v>117.1268713042793</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27163,10 +27163,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346401</v>
+        <v>34.709617553464</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344378</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485731</v>
+        <v>72.62154181506457</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27379,7 +27379,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>322.5292719561886</v>
+        <v>22.68867710905425</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27461,10 +27461,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>32.71179201066276</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>148.2483091467722</v>
       </c>
     </row>
     <row r="4">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27546,7 +27546,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27558,7 +27558,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>183.6050610052252</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
@@ -27603,7 +27603,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>156.7083642816612</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>241.5774195448341</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>364.5023302135442</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
@@ -27679,10 +27679,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27698,16 +27698,16 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>56.38966468157906</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>146.7476534956807</v>
       </c>
     </row>
     <row r="7">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>65.24658593239086</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
@@ -27795,7 +27795,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
@@ -27834,10 +27834,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>117.3502087915053</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,22 +27853,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>367.6760034472379</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
@@ -27910,16 +27910,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>34.67833723205388</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>210.2831670182382</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="14">
@@ -28746,10 +28746,10 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L19" t="n">
-        <v>128.2979821082779</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28758,7 +28758,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28983,7 +28983,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -28995,7 +28995,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>128.2979821082778</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29071,7 +29071,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -29229,19 +29229,19 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>5.636002634528316</v>
       </c>
       <c r="R25" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29299,25 +29299,25 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>86.65052755599578</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>86.65052755599527</v>
       </c>
       <c r="M26" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R26" t="n">
         <v>37.61298457733328</v>
@@ -29475,7 +29475,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431634</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
         <v>93.99127447431646</v>
@@ -29533,10 +29533,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
+        <v>30.2722376590126</v>
+      </c>
+      <c r="K29" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="K29" t="n">
-        <v>86.65052755599567</v>
       </c>
       <c r="L29" t="n">
         <v>93.99127447431646</v>
@@ -29548,16 +29548,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
         <v>93.99127447431646</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J32" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>48.65992738833489</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="N32" t="n">
-        <v>106.3364573000707</v>
+        <v>43.49509683159954</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="R32" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000707</v>
+        <v>106.8683420224723</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>18.71446861254506</v>
+        <v>112.77991977271</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="35">
@@ -30013,7 +30013,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -30165,16 +30165,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668816</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M37" t="n">
-        <v>5.636002634529177</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30405,19 +30405,19 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>5.636002634529177</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30642,16 +30642,16 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>5.636002634529092</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>5.636002634529518</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -30885,16 +30885,16 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>5.636002634529518</v>
+        <v>5.636002634528552</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -34696,22 +34696,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>325.1804464274292</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>156.1960735084803</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344378</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344378</v>
+        <v>291.436925644448</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="P3" t="n">
-        <v>254.0045539012825</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>239.3119190900022</v>
       </c>
       <c r="M5" t="n">
-        <v>138.4677594163701</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35021,19 +35021,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>446.7103228260052</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344378</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>90.94294915246475</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,10 +35173,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>314.3065239219562</v>
       </c>
       <c r="L8" t="n">
-        <v>274.1926243725203</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35188,10 +35188,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,13 +35252,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>148.7405620940789</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>591.4121262692951</v>
@@ -35267,10 +35267,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>7.465299698097541</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>188.193610950082</v>
       </c>
       <c r="N12" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>119.5613130890187</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257288</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488444</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35665,7 +35665,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>102.2252668734662</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>119.5613130890187</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35969,19 +35969,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>484.6198681696871</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,10 +36042,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L19" t="n">
-        <v>294.0834769302979</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
@@ -36054,7 +36054,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716079</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
@@ -36063,7 +36063,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>409.2430801289772</v>
       </c>
       <c r="M21" t="n">
-        <v>362.1450102553808</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>210.9596397950879</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
@@ -36291,7 +36291,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>292.6462316453567</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
@@ -36367,7 +36367,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N23" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O23" t="n">
         <v>444.4844453457863</v>
@@ -36443,13 +36443,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>107.2231205187088</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
@@ -36525,19 +36525,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P25" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644680799</v>
       </c>
       <c r="R25" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36595,25 +36595,25 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>449.2589679877754</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>584.9538525242062</v>
       </c>
       <c r="M26" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
         <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36680,10 +36680,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N27" t="n">
-        <v>362.1450102553805</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446882</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>176.3831193851016</v>
       </c>
       <c r="K29" t="n">
-        <v>449.2589679877753</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
         <v>592.2945994425274</v>
@@ -36844,16 +36844,16 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
         <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36917,10 +36917,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N30" t="n">
-        <v>362.1450102553805</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>252.4473390261597</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>411.2683678201145</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>551.5160606510915</v>
+        <v>664.2959804238014</v>
       </c>
       <c r="N32" t="n">
-        <v>639.4791680449819</v>
+        <v>576.6378075765107</v>
       </c>
       <c r="O32" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066584</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110591</v>
+        <v>299.4926067837691</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
@@ -37154,10 +37154,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>247.8874524576768</v>
       </c>
       <c r="N33" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791166</v>
+        <v>76.79385455031321</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868807</v>
+        <v>195.4415774595199</v>
       </c>
       <c r="L34" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>206.887780065337</v>
+        <v>300.9532312255019</v>
       </c>
       <c r="N34" t="n">
-        <v>185.0400343749588</v>
+        <v>297.8199541476687</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371496</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380289</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102232</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L35" t="n">
-        <v>498.3033249682118</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M35" t="n">
         <v>551.5160606510915</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
@@ -37391,13 +37391,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>362.1450102553808</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O36" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>409.7185542589873</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>193.8093140873211</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
@@ -37628,10 +37628,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N39" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37701,19 +37701,19 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L40" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>193.8093140873211</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716079</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N42" t="n">
-        <v>287.7334829729927</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37877,7 +37877,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,16 +37938,16 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133907</v>
       </c>
       <c r="L43" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>193.8093140873215</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N43" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
         <v>164.3482495370789</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
         <v>322.9688344062893</v>
@@ -38105,7 +38105,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>362.1450102553808</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38181,16 +38181,16 @@
         <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>193.8093140873215</v>
+        <v>193.8093140873205</v>
       </c>
       <c r="N46" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905432</v>
       </c>
       <c r="O46" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
         <v>3.456764010152483</v>
